--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam2-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam2-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.270062</v>
+        <v>42.675953</v>
       </c>
       <c r="H2">
-        <v>96.81018599999999</v>
+        <v>128.027859</v>
       </c>
       <c r="I2">
-        <v>0.8981134838283895</v>
+        <v>0.9123907898314253</v>
       </c>
       <c r="J2">
-        <v>0.8981134838283895</v>
+        <v>0.9123907898314252</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.9976189999999999</v>
+        <v>0.1050723333333333</v>
       </c>
       <c r="N2">
-        <v>2.992857</v>
+        <v>0.315217</v>
       </c>
       <c r="O2">
-        <v>0.06139866523632875</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="P2">
-        <v>0.06139866523632875</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="Q2">
-        <v>32.19322698237799</v>
+        <v>4.484061958933667</v>
       </c>
       <c r="R2">
-        <v>289.739042841402</v>
+        <v>40.356557630403</v>
       </c>
       <c r="S2">
-        <v>0.05514296913781225</v>
+        <v>0.006171745367244765</v>
       </c>
       <c r="T2">
-        <v>0.05514296913781225</v>
+        <v>0.006171745367244764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.270062</v>
+        <v>42.675953</v>
       </c>
       <c r="H3">
-        <v>96.81018599999999</v>
+        <v>128.027859</v>
       </c>
       <c r="I3">
-        <v>0.8981134838283895</v>
+        <v>0.9123907898314253</v>
       </c>
       <c r="J3">
-        <v>0.8981134838283895</v>
+        <v>0.9123907898314252</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2810146666666667</v>
+        <v>0.9976189999999999</v>
       </c>
       <c r="N3">
-        <v>0.843044</v>
+        <v>2.992857</v>
       </c>
       <c r="O3">
-        <v>0.01729510509038539</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="P3">
-        <v>0.01729510509038539</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="Q3">
-        <v>9.068360716242665</v>
+        <v>42.574341555907</v>
       </c>
       <c r="R3">
-        <v>81.61524644618399</v>
+        <v>383.169074003163</v>
       </c>
       <c r="S3">
-        <v>0.01553296708590414</v>
+        <v>0.05859820797918915</v>
       </c>
       <c r="T3">
-        <v>0.01553296708590413</v>
+        <v>0.05859820797918914</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.270062</v>
+        <v>42.675953</v>
       </c>
       <c r="H4">
-        <v>96.81018599999999</v>
+        <v>128.027859</v>
       </c>
       <c r="I4">
-        <v>0.8981134838283895</v>
+        <v>0.9123907898314253</v>
       </c>
       <c r="J4">
-        <v>0.8981134838283895</v>
+        <v>0.9123907898314252</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.969586</v>
+        <v>0.173444</v>
       </c>
       <c r="N4">
-        <v>44.90875800000001</v>
+        <v>0.520332</v>
       </c>
       <c r="O4">
-        <v>0.9213062296732859</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="P4">
-        <v>0.9213062296732859</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="Q4">
-        <v>483.069468334332</v>
+        <v>7.401887992132001</v>
       </c>
       <c r="R4">
-        <v>4347.625215008988</v>
+        <v>66.616991929188</v>
       </c>
       <c r="S4">
-        <v>0.8274375476046731</v>
+        <v>0.0101877646523798</v>
       </c>
       <c r="T4">
-        <v>0.8274375476046731</v>
+        <v>0.0101877646523798</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.529744666666667</v>
+        <v>42.675953</v>
       </c>
       <c r="H5">
-        <v>4.589234</v>
+        <v>128.027859</v>
       </c>
       <c r="I5">
-        <v>0.04257457924772189</v>
+        <v>0.9123907898314253</v>
       </c>
       <c r="J5">
-        <v>0.04257457924772189</v>
+        <v>0.9123907898314252</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9976189999999999</v>
+        <v>14.25707666666667</v>
       </c>
       <c r="N5">
-        <v>2.992857</v>
+        <v>42.77123</v>
       </c>
       <c r="O5">
-        <v>0.06139866523632875</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="P5">
-        <v>0.06139866523632875</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="Q5">
-        <v>1.526102344615333</v>
+        <v>608.4343337440635</v>
       </c>
       <c r="R5">
-        <v>13.734921101538</v>
+        <v>5475.909003696571</v>
       </c>
       <c r="S5">
-        <v>0.002614022338808426</v>
+        <v>0.8374330718326116</v>
       </c>
       <c r="T5">
-        <v>0.002614022338808425</v>
+        <v>0.8374330718326115</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>4.589234</v>
       </c>
       <c r="I6">
-        <v>0.04257457924772189</v>
+        <v>0.03270518515803058</v>
       </c>
       <c r="J6">
-        <v>0.04257457924772189</v>
+        <v>0.03270518515803057</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2810146666666667</v>
+        <v>0.1050723333333333</v>
       </c>
       <c r="N6">
-        <v>0.843044</v>
+        <v>0.315217</v>
       </c>
       <c r="O6">
-        <v>0.01729510509038539</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="P6">
-        <v>0.01729510509038539</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="Q6">
-        <v>0.4298806875884445</v>
+        <v>0.1607338415308889</v>
       </c>
       <c r="R6">
-        <v>3.868926188296</v>
+        <v>1.446604573778</v>
       </c>
       <c r="S6">
-        <v>0.0007363318222682912</v>
+        <v>0.0002212298471592981</v>
       </c>
       <c r="T6">
-        <v>0.0007363318222682909</v>
+        <v>0.000221229847159298</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>4.589234</v>
       </c>
       <c r="I7">
-        <v>0.04257457924772189</v>
+        <v>0.03270518515803058</v>
       </c>
       <c r="J7">
-        <v>0.04257457924772189</v>
+        <v>0.03270518515803057</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.969586</v>
+        <v>0.9976189999999999</v>
       </c>
       <c r="N7">
-        <v>44.90875800000001</v>
+        <v>2.992857</v>
       </c>
       <c r="O7">
-        <v>0.9213062296732859</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="P7">
-        <v>0.9213062296732859</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="Q7">
-        <v>22.899644345708</v>
+        <v>1.526102344615333</v>
       </c>
       <c r="R7">
-        <v>206.096799111372</v>
+        <v>13.734921101538</v>
       </c>
       <c r="S7">
-        <v>0.03922422508664518</v>
+        <v>0.00210048727282994</v>
       </c>
       <c r="T7">
-        <v>0.03922422508664517</v>
+        <v>0.00210048727282994</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,25 +900,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.308728</v>
+        <v>1.529744666666667</v>
       </c>
       <c r="H8">
-        <v>0.926184</v>
+        <v>4.589234</v>
       </c>
       <c r="I8">
-        <v>0.008592260517980135</v>
+        <v>0.03270518515803058</v>
       </c>
       <c r="J8">
-        <v>0.008592260517980135</v>
+        <v>0.03270518515803057</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.9976189999999999</v>
+        <v>0.173444</v>
       </c>
       <c r="N8">
-        <v>2.992857</v>
+        <v>0.520332</v>
       </c>
       <c r="O8">
-        <v>0.06139866523632875</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="P8">
-        <v>0.06139866523632875</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="Q8">
-        <v>0.307992918632</v>
+        <v>0.2653250339653334</v>
       </c>
       <c r="R8">
-        <v>2.771936267688</v>
+        <v>2.387925305688</v>
       </c>
       <c r="S8">
-        <v>0.000527553327166787</v>
+        <v>0.0003651864234228861</v>
       </c>
       <c r="T8">
-        <v>0.000527553327166787</v>
+        <v>0.000365186423422886</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.308728</v>
+        <v>1.529744666666667</v>
       </c>
       <c r="H9">
-        <v>0.926184</v>
+        <v>4.589234</v>
       </c>
       <c r="I9">
-        <v>0.008592260517980135</v>
+        <v>0.03270518515803058</v>
       </c>
       <c r="J9">
-        <v>0.008592260517980135</v>
+        <v>0.03270518515803057</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2810146666666667</v>
+        <v>14.25707666666667</v>
       </c>
       <c r="N9">
-        <v>0.843044</v>
+        <v>42.77123</v>
       </c>
       <c r="O9">
-        <v>0.01729510509038539</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="P9">
-        <v>0.01729510509038539</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="Q9">
-        <v>0.08675709601066667</v>
+        <v>21.80968699309112</v>
       </c>
       <c r="R9">
-        <v>0.7808138640960001</v>
+        <v>196.28718293782</v>
       </c>
       <c r="S9">
-        <v>0.0001486040486224357</v>
+        <v>0.03001828161461845</v>
       </c>
       <c r="T9">
-        <v>0.0001486040486224356</v>
+        <v>0.03001828161461845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.308728</v>
+        <v>0.9319226666666666</v>
       </c>
       <c r="H10">
-        <v>0.926184</v>
+        <v>2.795768</v>
       </c>
       <c r="I10">
-        <v>0.008592260517980135</v>
+        <v>0.01992404616955614</v>
       </c>
       <c r="J10">
-        <v>0.008592260517980135</v>
+        <v>0.01992404616955614</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>14.969586</v>
+        <v>0.1050723333333333</v>
       </c>
       <c r="N10">
-        <v>44.90875800000001</v>
+        <v>0.315217</v>
       </c>
       <c r="O10">
-        <v>0.9213062296732859</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="P10">
-        <v>0.9213062296732859</v>
+        <v>0.006764366142259137</v>
       </c>
       <c r="Q10">
-        <v>4.621530346608001</v>
+        <v>0.09791928907288888</v>
       </c>
       <c r="R10">
-        <v>41.593773119472</v>
+        <v>0.881273601656</v>
       </c>
       <c r="S10">
-        <v>0.007916103142190913</v>
+        <v>0.0001347735433261534</v>
       </c>
       <c r="T10">
-        <v>0.007916103142190913</v>
+        <v>0.0001347735433261534</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.822405666666667</v>
+        <v>0.9319226666666666</v>
       </c>
       <c r="H11">
-        <v>5.467217</v>
+        <v>2.795768</v>
       </c>
       <c r="I11">
-        <v>0.05071967640590833</v>
+        <v>0.01992404616955614</v>
       </c>
       <c r="J11">
-        <v>0.05071967640590833</v>
+        <v>0.01992404616955614</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,27 +1119,27 @@
         <v>2.992857</v>
       </c>
       <c r="O11">
-        <v>0.06139866523632875</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="P11">
-        <v>0.06139866523632875</v>
+        <v>0.06422490081252995</v>
       </c>
       <c r="Q11">
-        <v>1.818066518774333</v>
+        <v>0.9297037587973331</v>
       </c>
       <c r="R11">
-        <v>16.362598668969</v>
+        <v>8.367333829175999</v>
       </c>
       <c r="S11">
-        <v>0.003114120432541288</v>
+        <v>0.001279619889024011</v>
       </c>
       <c r="T11">
-        <v>0.003114120432541287</v>
+        <v>0.00127961988902401</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.822405666666667</v>
+        <v>0.9319226666666666</v>
       </c>
       <c r="H12">
-        <v>5.467217</v>
+        <v>2.795768</v>
       </c>
       <c r="I12">
-        <v>0.05071967640590833</v>
+        <v>0.01992404616955614</v>
       </c>
       <c r="J12">
-        <v>0.05071967640590833</v>
+        <v>0.01992404616955614</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.2810146666666667</v>
+        <v>0.173444</v>
       </c>
       <c r="N12">
-        <v>0.843044</v>
+        <v>0.520332</v>
       </c>
       <c r="O12">
-        <v>0.01729510509038539</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="P12">
-        <v>0.01729510509038539</v>
+        <v>0.01116600996625811</v>
       </c>
       <c r="Q12">
-        <v>0.5121227209497778</v>
+        <v>0.1616363949973333</v>
       </c>
       <c r="R12">
-        <v>4.609104488548</v>
+        <v>1.454727554976</v>
       </c>
       <c r="S12">
-        <v>0.000877202133590525</v>
+        <v>0.0002224720980974506</v>
       </c>
       <c r="T12">
-        <v>0.0008772021335905248</v>
+        <v>0.0002224720980974505</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.822405666666667</v>
+        <v>0.9319226666666666</v>
       </c>
       <c r="H13">
-        <v>5.467217</v>
+        <v>2.795768</v>
       </c>
       <c r="I13">
-        <v>0.05071967640590833</v>
+        <v>0.01992404616955614</v>
       </c>
       <c r="J13">
-        <v>0.05071967640590833</v>
+        <v>0.01992404616955614</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,276 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.969586</v>
+        <v>14.25707666666667</v>
       </c>
       <c r="N13">
-        <v>44.90875800000001</v>
+        <v>42.77123</v>
       </c>
       <c r="O13">
-        <v>0.9213062296732859</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="P13">
-        <v>0.9213062296732859</v>
+        <v>0.9178447230789528</v>
       </c>
       <c r="Q13">
-        <v>27.280658354054</v>
+        <v>13.28649290607111</v>
       </c>
       <c r="R13">
-        <v>245.525925186486</v>
+        <v>119.57843615464</v>
       </c>
       <c r="S13">
-        <v>0.04672835383977652</v>
+        <v>0.01828718063910853</v>
       </c>
       <c r="T13">
-        <v>0.04672835383977652</v>
+        <v>0.01828718063910853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.636145333333333</v>
+      </c>
+      <c r="H14">
+        <v>4.908436</v>
+      </c>
+      <c r="I14">
+        <v>0.03497997884098805</v>
+      </c>
+      <c r="J14">
+        <v>0.03497997884098804</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1050723333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.315217</v>
+      </c>
+      <c r="O14">
+        <v>0.006764366142259137</v>
+      </c>
+      <c r="P14">
+        <v>0.006764366142259137</v>
+      </c>
+      <c r="Q14">
+        <v>0.1719136078457778</v>
+      </c>
+      <c r="R14">
+        <v>1.547222470612</v>
+      </c>
+      <c r="S14">
+        <v>0.0002366173845289206</v>
+      </c>
+      <c r="T14">
+        <v>0.0002366173845289205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.636145333333333</v>
+      </c>
+      <c r="H15">
+        <v>4.908436</v>
+      </c>
+      <c r="I15">
+        <v>0.03497997884098805</v>
+      </c>
+      <c r="J15">
+        <v>0.03497997884098804</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9976189999999999</v>
+      </c>
+      <c r="N15">
+        <v>2.992857</v>
+      </c>
+      <c r="O15">
+        <v>0.06422490081252995</v>
+      </c>
+      <c r="P15">
+        <v>0.06422490081252995</v>
+      </c>
+      <c r="Q15">
+        <v>1.632249671294667</v>
+      </c>
+      <c r="R15">
+        <v>14.690247041652</v>
+      </c>
+      <c r="S15">
+        <v>0.002246585671486854</v>
+      </c>
+      <c r="T15">
+        <v>0.002246585671486853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.636145333333333</v>
+      </c>
+      <c r="H16">
+        <v>4.908436</v>
+      </c>
+      <c r="I16">
+        <v>0.03497997884098805</v>
+      </c>
+      <c r="J16">
+        <v>0.03497997884098804</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.173444</v>
+      </c>
+      <c r="N16">
+        <v>0.520332</v>
+      </c>
+      <c r="O16">
+        <v>0.01116600996625811</v>
+      </c>
+      <c r="P16">
+        <v>0.01116600996625811</v>
+      </c>
+      <c r="Q16">
+        <v>0.2837795911946667</v>
+      </c>
+      <c r="R16">
+        <v>2.554016320752</v>
+      </c>
+      <c r="S16">
+        <v>0.0003905867923579703</v>
+      </c>
+      <c r="T16">
+        <v>0.0003905867923579702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.636145333333333</v>
+      </c>
+      <c r="H17">
+        <v>4.908436</v>
+      </c>
+      <c r="I17">
+        <v>0.03497997884098805</v>
+      </c>
+      <c r="J17">
+        <v>0.03497997884098804</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.25707666666667</v>
+      </c>
+      <c r="N17">
+        <v>42.77123</v>
+      </c>
+      <c r="O17">
+        <v>0.9178447230789528</v>
+      </c>
+      <c r="P17">
+        <v>0.9178447230789528</v>
+      </c>
+      <c r="Q17">
+        <v>23.32664945514222</v>
+      </c>
+      <c r="R17">
+        <v>209.93984509628</v>
+      </c>
+      <c r="S17">
+        <v>0.0321061889926143</v>
+      </c>
+      <c r="T17">
+        <v>0.0321061889926143</v>
       </c>
     </row>
   </sheetData>
